--- a/cuda APIs synchronization behavior.xlsx
+++ b/cuda APIs synchronization behavior.xlsx
@@ -27,9 +27,6 @@
     <t>Unified Memory</t>
   </si>
   <si>
-    <t>pageable host memory to device memory</t>
-  </si>
-  <si>
     <t>pinned host memory to device memory</t>
   </si>
   <si>
@@ -70,6 +67,13 @@
   </si>
   <si>
     <t>CUDA APIs</t>
+  </si>
+  <si>
+    <t>pageable host memory to device memory (
+host memory already copied to the staging 
+memory for DMA transfer to device memory, 
+but the DMA to final destination may not 
+have completed.)</t>
   </si>
 </sst>
 </file>
@@ -105,8 +109,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,7 +485,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -489,7 +498,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -500,90 +509,90 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
-        <v>3</v>
+    <row r="3" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
         <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
         <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
